--- a/data/raw/Producer_Price_Index_by_Commodity_Farm_Products_Soybeans_data.xlsx
+++ b/data/raw/Producer_Price_Index_by_Commodity_Farm_Products_Soybeans_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -29,97 +29,28 @@
     <t xml:space="preserve">2025-02-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-01</t>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">92.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
   </si>
   <si>
     <t xml:space="preserve">2006-05-01</t>
@@ -1854,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1865,10 +1796,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1879,10 +1810,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1893,10 +1824,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1907,10 +1838,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1921,10 +1852,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1935,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -1949,10 +1880,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1963,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1977,10 +1908,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1991,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2022,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -2033,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -2047,10 +1978,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -2061,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -2075,10 +2006,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -2089,10 +2020,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -2103,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -2117,10 +2048,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
@@ -2131,10 +2062,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -2145,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -2159,10 +2090,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -2173,10 +2104,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -2187,10 +2118,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -2201,10 +2132,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
@@ -2215,10 +2146,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -2229,10 +2160,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -2243,10 +2174,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -2257,10 +2188,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2271,10 +2202,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -2285,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -2299,10 +2230,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -2313,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -2327,10 +2258,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
@@ -2341,10 +2272,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2355,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44">
@@ -2369,10 +2300,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45">
@@ -2383,10 +2314,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -2397,10 +2328,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -2411,10 +2342,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -2425,10 +2356,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
@@ -2439,10 +2370,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
@@ -2453,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51">
@@ -2467,10 +2398,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
@@ -2481,10 +2412,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -2495,10 +2426,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -2509,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -2523,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -2537,10 +2468,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
@@ -2551,10 +2482,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
@@ -2722,7 +2653,7 @@
         <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70">
@@ -2733,10 +2664,10 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -2747,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -2761,10 +2692,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -2775,10 +2706,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -2789,10 +2720,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -2803,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -2817,10 +2748,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77">
@@ -2831,10 +2762,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
@@ -2845,10 +2776,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79">
@@ -2859,10 +2790,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80">
@@ -2873,10 +2804,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81">
@@ -2887,10 +2818,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82">
@@ -2901,10 +2832,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83">
@@ -2915,10 +2846,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
@@ -2929,10 +2860,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -3086,7 +3017,7 @@
         <v>188</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
@@ -3097,10 +3028,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
         <v>190</v>
-      </c>
-      <c r="D96" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="97">
@@ -3114,7 +3045,7 @@
         <v>191</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
@@ -3125,10 +3056,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" t="s">
         <v>193</v>
-      </c>
-      <c r="D98" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="99">
@@ -3139,10 +3070,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" t="s">
         <v>195</v>
-      </c>
-      <c r="D99" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="100">
@@ -3153,10 +3084,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" t="s">
         <v>197</v>
-      </c>
-      <c r="D100" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="101">
@@ -3167,10 +3098,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" t="s">
         <v>199</v>
-      </c>
-      <c r="D101" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="102">
@@ -3181,10 +3112,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
         <v>201</v>
-      </c>
-      <c r="D102" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="103">
@@ -3195,10 +3126,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
         <v>203</v>
-      </c>
-      <c r="D103" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="104">
@@ -3209,10 +3140,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
         <v>205</v>
-      </c>
-      <c r="D104" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="105">
@@ -3223,10 +3154,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
         <v>207</v>
-      </c>
-      <c r="D105" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="106">
@@ -3237,10 +3168,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
+        <v>208</v>
+      </c>
+      <c r="D106" t="s">
         <v>209</v>
-      </c>
-      <c r="D106" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="107">
@@ -3251,10 +3182,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" t="s">
         <v>211</v>
-      </c>
-      <c r="D107" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="108">
@@ -3282,7 +3213,7 @@
         <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110">
@@ -3293,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111">
@@ -3307,10 +3238,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112">
@@ -3321,10 +3252,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113">
@@ -3335,10 +3266,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114">
@@ -3349,10 +3280,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115">
@@ -3363,10 +3294,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116">
@@ -3377,10 +3308,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117">
@@ -3391,10 +3322,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118">
@@ -3405,10 +3336,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119">
@@ -3419,10 +3350,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120">
@@ -3433,10 +3364,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121">
@@ -3447,10 +3378,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122">
@@ -3461,10 +3392,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123">
@@ -3475,10 +3406,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124">
@@ -3489,10 +3420,10 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125">
@@ -3503,10 +3434,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126">
@@ -3517,10 +3448,10 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127">
@@ -3531,10 +3462,10 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128">
@@ -3545,10 +3476,10 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129">
@@ -3559,10 +3490,10 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130">
@@ -3573,10 +3504,10 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131">
@@ -3587,10 +3518,10 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132">
@@ -3601,10 +3532,10 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D132" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133">
@@ -3660,7 +3591,7 @@
         <v>267</v>
       </c>
       <c r="D136" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
     </row>
     <row r="137">
@@ -3671,10 +3602,10 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" t="s">
         <v>269</v>
-      </c>
-      <c r="D137" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="138">
@@ -3685,10 +3616,10 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" t="s">
         <v>271</v>
-      </c>
-      <c r="D138" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="139">
@@ -3699,10 +3630,10 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" t="s">
         <v>273</v>
-      </c>
-      <c r="D139" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="140">
@@ -3713,10 +3644,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" t="s">
         <v>275</v>
-      </c>
-      <c r="D140" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="141">
@@ -3727,10 +3658,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
+        <v>276</v>
+      </c>
+      <c r="D141" t="s">
         <v>277</v>
-      </c>
-      <c r="D141" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="142">
@@ -3741,10 +3672,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" t="s">
         <v>279</v>
-      </c>
-      <c r="D142" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="143">
@@ -3755,10 +3686,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
+        <v>280</v>
+      </c>
+      <c r="D143" t="s">
         <v>281</v>
-      </c>
-      <c r="D143" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="144">
@@ -3769,10 +3700,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
+        <v>282</v>
+      </c>
+      <c r="D144" t="s">
         <v>283</v>
-      </c>
-      <c r="D144" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="145">
@@ -3786,7 +3717,7 @@
         <v>284</v>
       </c>
       <c r="D145" t="s">
-        <v>285</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146">
@@ -3797,10 +3728,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" t="s">
         <v>286</v>
-      </c>
-      <c r="D146" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="147">
@@ -3811,10 +3742,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
     </row>
     <row r="148">
@@ -3825,10 +3756,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D148" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149">
@@ -3839,10 +3770,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
+        <v>290</v>
+      </c>
+      <c r="D149" t="s">
         <v>291</v>
-      </c>
-      <c r="D149" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="150">
@@ -3853,10 +3784,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151">
@@ -3867,10 +3798,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152">
@@ -3881,10 +3812,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153">
@@ -3895,10 +3826,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154">
@@ -3909,10 +3840,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155">
@@ -3923,10 +3854,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156">
@@ -3937,10 +3868,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157">
@@ -3951,10 +3882,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D157" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158">
@@ -3965,10 +3896,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
+        <v>307</v>
+      </c>
+      <c r="D158" t="s">
         <v>308</v>
-      </c>
-      <c r="D158" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="159">
@@ -3979,10 +3910,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
+        <v>309</v>
+      </c>
+      <c r="D159" t="s">
         <v>310</v>
-      </c>
-      <c r="D159" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="160">
@@ -3996,7 +3927,7 @@
         <v>311</v>
       </c>
       <c r="D160" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161">
@@ -4007,10 +3938,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
+        <v>312</v>
+      </c>
+      <c r="D161" t="s">
         <v>313</v>
-      </c>
-      <c r="D161" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="162">
@@ -4021,10 +3952,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" t="s">
         <v>315</v>
-      </c>
-      <c r="D162" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="163">
@@ -4164,7 +4095,7 @@
         <v>334</v>
       </c>
       <c r="D172" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173">
@@ -4175,10 +4106,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D173" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="174">
@@ -4189,10 +4120,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D174" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175">
@@ -4203,10 +4134,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176">
@@ -4217,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D176" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177">
@@ -4234,7 +4165,7 @@
         <v>343</v>
       </c>
       <c r="D177" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
     </row>
     <row r="178">
@@ -4245,10 +4176,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
+        <v>344</v>
+      </c>
+      <c r="D178" t="s">
         <v>345</v>
-      </c>
-      <c r="D178" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="179">
@@ -4259,10 +4190,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
+        <v>346</v>
+      </c>
+      <c r="D179" t="s">
         <v>347</v>
-      </c>
-      <c r="D179" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="180">
@@ -4273,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
+        <v>348</v>
+      </c>
+      <c r="D180" t="s">
         <v>349</v>
-      </c>
-      <c r="D180" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="181">
@@ -4287,10 +4218,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
+        <v>350</v>
+      </c>
+      <c r="D181" t="s">
         <v>351</v>
-      </c>
-      <c r="D181" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="182">
@@ -4301,10 +4232,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D182" t="s">
-        <v>354</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183">
@@ -4315,10 +4246,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D183" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184">
@@ -4329,10 +4260,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D184" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185">
@@ -4343,10 +4274,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D185" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186">
@@ -4357,10 +4288,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D186" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187">
@@ -4371,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D187" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="188">
@@ -4385,10 +4316,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D188" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189">
@@ -4399,10 +4330,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
+        <v>365</v>
+      </c>
+      <c r="D189" t="s">
         <v>366</v>
-      </c>
-      <c r="D189" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="190">
@@ -4472,7 +4403,7 @@
         <v>375</v>
       </c>
       <c r="D194" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195">
@@ -4483,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D195" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196">
@@ -4497,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D196" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197">
@@ -4511,10 +4442,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D197" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198">
@@ -4525,10 +4456,10 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D198" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199">
@@ -4539,10 +4470,10 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200">
@@ -4553,10 +4484,10 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D200" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201">
@@ -4567,10 +4498,10 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D201" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202">
@@ -4581,10 +4512,10 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D202" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="203">
@@ -4595,10 +4526,10 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D203" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204">
@@ -4609,10 +4540,10 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D204" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="205">
@@ -4623,10 +4554,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D205" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206">
@@ -4637,10 +4568,10 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D206" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207">
@@ -4651,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D207" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="208">
@@ -4665,10 +4596,10 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D208" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="209">
@@ -4679,10 +4610,10 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D209" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210">
@@ -4693,10 +4624,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D210" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="211">
@@ -4707,10 +4638,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D211" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="212">
@@ -4721,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D212" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="213">
@@ -4735,10 +4666,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D213" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214">
@@ -4749,10 +4680,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D214" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="215">
@@ -4763,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D215" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216">
@@ -4777,10 +4708,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D216" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217">
@@ -4791,10 +4722,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D217" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="218">
@@ -4805,10 +4736,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D218" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="219">
@@ -4819,10 +4750,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D219" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="220">
@@ -4833,10 +4764,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D220" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="221">
@@ -4847,10 +4778,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D221" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="222">
@@ -4861,10 +4792,10 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D222" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="223">
@@ -4875,10 +4806,10 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D223" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="224">
@@ -4889,10 +4820,10 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D224" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225">
@@ -4903,10 +4834,10 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D225" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226">
@@ -4917,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D226" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227">
@@ -4931,10 +4862,10 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D227" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228">
@@ -4945,10 +4876,10 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D228" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="229">
@@ -4959,10 +4890,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D229" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="230">
@@ -4973,178 +4904,10 @@
         <v>4</v>
       </c>
       <c r="C230" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D230" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
         <v>448</v>
-      </c>
-      <c r="D231" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>450</v>
-      </c>
-      <c r="D232" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>452</v>
-      </c>
-      <c r="D233" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>454</v>
-      </c>
-      <c r="D234" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>456</v>
-      </c>
-      <c r="D235" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>458</v>
-      </c>
-      <c r="D236" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>460</v>
-      </c>
-      <c r="D237" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>462</v>
-      </c>
-      <c r="D238" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>464</v>
-      </c>
-      <c r="D239" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>466</v>
-      </c>
-      <c r="D240" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>468</v>
-      </c>
-      <c r="D241" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>470</v>
-      </c>
-      <c r="D242" t="s">
-        <v>471</v>
       </c>
     </row>
   </sheetData>
